--- a/Outputs/CellStats.xlsx
+++ b/Outputs/CellStats.xlsx
@@ -1,21 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giorgianni.a\OneDrive - Northeastern University\Spring 2025\ST Visual Sensing\ST_FinalProj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giorgianni.a\OneDrive - Northeastern University\Spring 2025\ST Visual Sensing\FinalProject\Outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B043F547-8CAF-49E0-99E3-953CBB0D98A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C719A87-7588-4AE3-896A-4396863BF70C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="6e7ed596 1b76 4" sheetId="2" r:id="rId1"/>
+    <sheet name="e13f2327 fbf4 4" sheetId="3" r:id="rId2"/>
+    <sheet name="e234ce8b 4ec4 4" sheetId="4" r:id="rId3"/>
+    <sheet name="e40000b4 1b26 4" sheetId="5" r:id="rId4"/>
+    <sheet name="e6d7c5e1 43fc 4" sheetId="6" r:id="rId5"/>
+    <sheet name="e94a811d 3145 4" sheetId="7" r:id="rId6"/>
+    <sheet name="ed0d8763 e734 4" sheetId="8" r:id="rId7"/>
+    <sheet name="eed298b3 35f2 4" sheetId="9" r:id="rId8"/>
+    <sheet name="effd6334 516f 4" sheetId="10" r:id="rId9"/>
+    <sheet name="f06ba705 5509 4" sheetId="11" r:id="rId10"/>
+    <sheet name="f1f9df6d c4cb 4" sheetId="12" r:id="rId11"/>
+    <sheet name="f25a2ac8 cb6e 4" sheetId="13" r:id="rId12"/>
+    <sheet name="f2a8a483 b254 4" sheetId="14" r:id="rId13"/>
+    <sheet name="f3bd0fcc 647d 4" sheetId="15" r:id="rId14"/>
+    <sheet name="f3d84be2 8af0 4" sheetId="16" r:id="rId15"/>
+    <sheet name="f4722a74 35e7 4" sheetId="17" r:id="rId16"/>
+    <sheet name="f81806a8 5883 4" sheetId="18" r:id="rId17"/>
+    <sheet name="f8b14fc4 dd6b 4" sheetId="19" r:id="rId18"/>
+    <sheet name="fa1f9f89 cecb 4" sheetId="20" r:id="rId19"/>
+    <sheet name="fbb1b44c d75a 4" sheetId="21" r:id="rId20"/>
   </sheets>
-  <calcPr calcId="191029" fullCalcOnLoad="true"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,43 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="28" uniqueCount="14">
-  <si>
-    <t>MaxDiameter</t>
-  </si>
-  <si>
-    <t>MaxAngle</t>
-  </si>
-  <si>
-    <t>MaxCoordinates_1</t>
-  </si>
-  <si>
-    <t>MaxCoordinates_2</t>
-  </si>
-  <si>
-    <t>MaxCoordinates_3</t>
-  </si>
-  <si>
-    <t>MaxCoordinates_4</t>
-  </si>
-  <si>
-    <t>MinDiameter</t>
-  </si>
-  <si>
-    <t>MinAngle</t>
-  </si>
-  <si>
-    <t>MinCoordinates_1</t>
-  </si>
-  <si>
-    <t>MinCoordinates_2</t>
-  </si>
-  <si>
-    <t>MinCoordinates_3</t>
-  </si>
-  <si>
-    <t>MinCoordinates_4</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="2">
   <si>
     <t>MajorAxisLength</t>
   </si>
@@ -83,8 +66,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,7 +84,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -109,14 +92,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -135,7 +116,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -286,7 +267,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -310,9 +291,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -336,7 +317,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -371,7 +352,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="false">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -389,7 +370,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -414,7 +395,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -450,337 +431,5870 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3A2F830-EAA2-4E2A-B8FB-F3EDE755BFEC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="2" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>116.73116923180591</v>
+      </c>
+      <c r="B2">
+        <v>99.256716455831096</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>111.8826644905747</v>
+      </c>
+      <c r="B3">
+        <v>109.72057612924225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>117.16539353748126</v>
+      </c>
+      <c r="B4">
+        <v>111.71968446753644</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>118.08643847936456</v>
+      </c>
+      <c r="B5">
+        <v>111.99220103650421</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>116.12291561756516</v>
+      </c>
+      <c r="B6">
+        <v>106.52982997022129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>121.18287552511299</v>
+      </c>
+      <c r="B7">
+        <v>103.37852549437692</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>244.99381471946623</v>
+      </c>
+      <c r="B8">
+        <v>117.2124294518037</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>116.57554428668904</v>
+      </c>
+      <c r="B9">
+        <v>106.9473480945769</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>115.68950626989472</v>
+      </c>
+      <c r="B10">
+        <v>110.13464122906454</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>218.32560225375465</v>
+      </c>
+      <c r="B11">
+        <v>113.11935211173952</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>116.76782654935718</v>
+      </c>
+      <c r="B12">
+        <v>108.17223045593629</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>124.62340854802703</v>
+      </c>
+      <c r="B13">
+        <v>116.8537728783493</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>226.21357242294249</v>
+      </c>
+      <c r="B14">
+        <v>116.76142081327761</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>135.00608191995806</v>
+      </c>
+      <c r="B15">
+        <v>112.39248735865114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>119.68303661574602</v>
+      </c>
+      <c r="B16">
+        <v>109.2831819717629</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>108.48806581077631</v>
+      </c>
+      <c r="B17">
+        <v>105.39002770815527</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>128.48916471097866</v>
+      </c>
+      <c r="B18">
+        <v>120.92015576543128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>126.08559735846124</v>
+      </c>
+      <c r="B19">
+        <v>96.661324289939401</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>122.3330022289347</v>
+      </c>
+      <c r="B20">
+        <v>110.2178734278649</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>245.99753277964311</v>
+      </c>
+      <c r="B21">
+        <v>106.84465431329767</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>158.22784659182156</v>
+      </c>
+      <c r="B22">
+        <v>114.31678634023737</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>240.5615847558206</v>
+      </c>
+      <c r="B23">
+        <v>103.64572344119452</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>133.80603950559939</v>
+      </c>
+      <c r="B24">
+        <v>102.83810622717782</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>127.65755953558572</v>
+      </c>
+      <c r="B25">
+        <v>114.24694201785907</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>183.56476362570265</v>
+      </c>
+      <c r="B26">
+        <v>99.294247354200436</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.6875" customWidth="true"/>
-    <col min="2" max="2" width="14.6875" customWidth="true"/>
-    <col min="3" max="3" width="16.375" customWidth="true"/>
-    <col min="4" max="4" width="16.375" customWidth="true"/>
-    <col min="5" max="5" width="16.375" customWidth="true"/>
-    <col min="6" max="6" width="16.375" customWidth="true"/>
-    <col min="7" max="7" width="11.8125" customWidth="true"/>
-    <col min="8" max="8" width="12.4375" customWidth="true"/>
-    <col min="9" max="9" width="16" customWidth="true"/>
-    <col min="10" max="10" width="16" customWidth="true"/>
-    <col min="11" max="11" width="16" customWidth="true"/>
-    <col min="12" max="12" width="16" customWidth="true"/>
+    <col min="1" max="2" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2">
         <v>119.08132892127327</v>
       </c>
-      <c r="B2" s="0">
+      <c r="B2">
         <v>79.820730059666545</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3">
         <v>124.70528650312981</v>
       </c>
-      <c r="B3" s="0">
+      <c r="B3">
         <v>106.86980148651311</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4">
         <v>115.28009213951475</v>
       </c>
-      <c r="B4" s="0">
+      <c r="B4">
         <v>103.07459284440507</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="0">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5">
         <v>109.14846350873009</v>
       </c>
-      <c r="B5" s="0">
+      <c r="B5">
         <v>105.24625707625974</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="0">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6">
         <v>124.77306605295576</v>
       </c>
-      <c r="B6" s="0">
+      <c r="B6">
         <v>102.29184517575051</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="0">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7">
         <v>117.6534037596809</v>
       </c>
-      <c r="B7" s="0">
+      <c r="B7">
         <v>95.774110529129217</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="0">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8">
         <v>126.05336764956051</v>
       </c>
-      <c r="B8" s="0">
+      <c r="B8">
         <v>122.88368204707318</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="0">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9">
         <v>114.40945058005758</v>
       </c>
-      <c r="B9" s="0">
+      <c r="B9">
         <v>107.16059689517203</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="0">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10">
         <v>113.47061419387244</v>
       </c>
-      <c r="B10" s="0">
+      <c r="B10">
         <v>100.52600673669933</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="0">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11">
         <v>107.77374026042099</v>
       </c>
-      <c r="B11" s="0">
+      <c r="B11">
         <v>98.909250375769133</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="0">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12">
         <v>103.0673347001587</v>
       </c>
-      <c r="B12" s="0">
+      <c r="B12">
         <v>97.22850958308598</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="0">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13">
         <v>103.22956421145409</v>
       </c>
-      <c r="B13" s="0">
+      <c r="B13">
         <v>95.629817032651289</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="0">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14">
         <v>114.51355160999688</v>
       </c>
-      <c r="B14" s="0">
+      <c r="B14">
         <v>99.387471722981573</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="0">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15">
         <v>104.45180701365081</v>
       </c>
-      <c r="B15" s="0">
+      <c r="B15">
         <v>101.91288694611642</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="0">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16">
         <v>130.63080599290865</v>
       </c>
-      <c r="B16" s="0">
+      <c r="B16">
         <v>78.384518211583114</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="0">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17">
         <v>103.86722087459999</v>
       </c>
-      <c r="B17" s="0">
+      <c r="B17">
         <v>97.541809725272628</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="0">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18">
         <v>108.23891867994448</v>
       </c>
-      <c r="B18" s="0">
+      <c r="B18">
         <v>94.639926142745523</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="0">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19">
         <v>120.30811006317832</v>
       </c>
-      <c r="B19" s="0">
+      <c r="B19">
         <v>99.911239455190838</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="0">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20">
         <v>107.57971039341669</v>
       </c>
-      <c r="B20" s="0">
+      <c r="B20">
         <v>95.69386860342405</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="0">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21">
         <v>117.00062057401533</v>
       </c>
-      <c r="B21" s="0">
+      <c r="B21">
         <v>95.253664911112352</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="0">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22">
         <v>109.34846853320157</v>
       </c>
-      <c r="B22" s="0">
+      <c r="B22">
         <v>98.53742648108603</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="0">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23">
         <v>148.92538998011403</v>
       </c>
-      <c r="B23" s="0">
+      <c r="B23">
         <v>139.94129837088872</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="0">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24">
         <v>119.41228142726229</v>
       </c>
-      <c r="B24" s="0">
+      <c r="B24">
         <v>117.07748519140858</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="0">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25">
         <v>115.76185643430858</v>
       </c>
-      <c r="B25" s="0">
+      <c r="B25">
         <v>109.18929081684264</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="0">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26">
         <v>122.42367103293196</v>
       </c>
-      <c r="B26" s="0">
+      <c r="B26">
         <v>118.52669696157173</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="0">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27">
         <v>114.71596748111678</v>
       </c>
-      <c r="B27" s="0">
+      <c r="B27">
         <v>110.91799329441567</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="0">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28">
         <v>116.58724130945517</v>
       </c>
-      <c r="B28" s="0">
+      <c r="B28">
         <v>108.1800842120297</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="0">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29">
         <v>117.44267386950384</v>
       </c>
-      <c r="B29" s="0">
+      <c r="B29">
         <v>110.75377159980304</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="0">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30">
         <v>108.06977671589948</v>
       </c>
-      <c r="B30" s="0">
+      <c r="B30">
         <v>101.01824977887334</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="0">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31">
         <v>125.03829531620163</v>
       </c>
-      <c r="B31" s="0">
+      <c r="B31">
         <v>109.15368715585076</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="0">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32">
         <v>101.33386569835208</v>
       </c>
-      <c r="B32" s="0">
+      <c r="B32">
         <v>98.49949863250383</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="0">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33">
         <v>121.93474053678369</v>
       </c>
-      <c r="B33" s="0">
+      <c r="B33">
         <v>112.92443540641034</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="0">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34">
         <v>113.62054364634103</v>
       </c>
-      <c r="B34" s="0">
+      <c r="B34">
         <v>90.207738133486799</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="0">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35">
         <v>118.34050869473354</v>
       </c>
-      <c r="B35" s="0">
+      <c r="B35">
         <v>106.23138657535165</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="0">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36">
         <v>113.31905788324001</v>
       </c>
-      <c r="B36" s="0">
+      <c r="B36">
         <v>90.562391391498963</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="0">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37">
         <v>110.11152966487272</v>
       </c>
-      <c r="B37" s="0">
+      <c r="B37">
         <v>95.843104828097012</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="0">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38">
         <v>113.7632065251325</v>
       </c>
-      <c r="B38" s="0">
+      <c r="B38">
         <v>102.85728557676254</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="0">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39">
         <v>105.06599416140357</v>
       </c>
-      <c r="B39" s="0">
+      <c r="B39">
         <v>90.374912819474929</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="2" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>108.83470222410362</v>
+      </c>
+      <c r="B2">
+        <v>107.1201253881016</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>115.15072719424093</v>
+      </c>
+      <c r="B3">
+        <v>109.11211899705214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>123.30367578706148</v>
+      </c>
+      <c r="B4">
+        <v>101.4127354713202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>114.83930794441194</v>
+      </c>
+      <c r="B5">
+        <v>110.80170476404966</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>112.8312250734389</v>
+      </c>
+      <c r="B6">
+        <v>108.28070523902072</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>113.80119961278967</v>
+      </c>
+      <c r="B7">
+        <v>105.40164142447001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>116.27431630571841</v>
+      </c>
+      <c r="B8">
+        <v>103.92166179013937</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>111.76186032677377</v>
+      </c>
+      <c r="B9">
+        <v>106.63128665790795</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>113.6974150678715</v>
+      </c>
+      <c r="B10">
+        <v>99.918696065128174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>141.50351114467122</v>
+      </c>
+      <c r="B11">
+        <v>119.15699826527053</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>108.99579104607574</v>
+      </c>
+      <c r="B12">
+        <v>108.24611527494284</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>117.96548977269941</v>
+      </c>
+      <c r="B13">
+        <v>95.094627073852209</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>120.41853326660137</v>
+      </c>
+      <c r="B14">
+        <v>107.24901373301154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>119.66610229175927</v>
+      </c>
+      <c r="B15">
+        <v>110.20004017985089</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>110.70692193962965</v>
+      </c>
+      <c r="B16">
+        <v>100.65223690827639</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>218.48084007798465</v>
+      </c>
+      <c r="B17">
+        <v>108.49813963187512</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>119.50642220034571</v>
+      </c>
+      <c r="B18">
+        <v>104.85875118498049</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>115.31408363961764</v>
+      </c>
+      <c r="B19">
+        <v>111.77101471111096</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>226.95843333101291</v>
+      </c>
+      <c r="B20">
+        <v>99.783949100752153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>114.97642186428924</v>
+      </c>
+      <c r="B21">
+        <v>113.44052978367759</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>186.84690591645588</v>
+      </c>
+      <c r="B22">
+        <v>110.5380086465847</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>116.00786571938133</v>
+      </c>
+      <c r="B23">
+        <v>105.32526796756123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>119.10477847321306</v>
+      </c>
+      <c r="B24">
+        <v>105.74655085161102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>129.13183640794688</v>
+      </c>
+      <c r="B25">
+        <v>96.293856490528512</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:B46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="2" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>215.31814909088698</v>
+      </c>
+      <c r="B2">
+        <v>110.82653013867089</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>120.48771222422313</v>
+      </c>
+      <c r="B3">
+        <v>111.74105138543889</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>111.11887745176455</v>
+      </c>
+      <c r="B4">
+        <v>102.96459032583196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>123.15101947085839</v>
+      </c>
+      <c r="B5">
+        <v>102.46893505872453</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>104.18538025230532</v>
+      </c>
+      <c r="B6">
+        <v>98.558039864371821</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>126.33011733221137</v>
+      </c>
+      <c r="B7">
+        <v>91.123404140532628</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>121.44456326535655</v>
+      </c>
+      <c r="B8">
+        <v>101.22759150670437</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>111.25641251362384</v>
+      </c>
+      <c r="B9">
+        <v>104.36964034627852</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>107.24609968685949</v>
+      </c>
+      <c r="B10">
+        <v>95.65572092588296</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>113.86342860132675</v>
+      </c>
+      <c r="B11">
+        <v>93.457978551741917</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>106.04679387776622</v>
+      </c>
+      <c r="B12">
+        <v>99.044907237826465</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>118.90068399439792</v>
+      </c>
+      <c r="B13">
+        <v>103.5466433440143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>101.65652457752032</v>
+      </c>
+      <c r="B14">
+        <v>97.78764196587673</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>120.76322930417875</v>
+      </c>
+      <c r="B15">
+        <v>110.08823731322184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>115.46250693338547</v>
+      </c>
+      <c r="B16">
+        <v>109.49661394989195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>107.00694791631176</v>
+      </c>
+      <c r="B17">
+        <v>98.726418973930436</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>110.28510699831851</v>
+      </c>
+      <c r="B18">
+        <v>99.060593363710666</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>127.39355041346256</v>
+      </c>
+      <c r="B19">
+        <v>104.08018176833471</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>110.7686581014206</v>
+      </c>
+      <c r="B20">
+        <v>103.60153404669482</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>183.8283395961075</v>
+      </c>
+      <c r="B21">
+        <v>102.20744431809854</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>120.80909434655601</v>
+      </c>
+      <c r="B22">
+        <v>110.73802503282192</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>120.00338623195896</v>
+      </c>
+      <c r="B23">
+        <v>118.38758525598678</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>113.26006876596605</v>
+      </c>
+      <c r="B24">
+        <v>103.70335520526299</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>122.97200963797719</v>
+      </c>
+      <c r="B25">
+        <v>94.390397002499043</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>163.82312888486322</v>
+      </c>
+      <c r="B26">
+        <v>105.21306611281493</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>205.55653939672484</v>
+      </c>
+      <c r="B27">
+        <v>99.454812865279351</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>118.04054087866344</v>
+      </c>
+      <c r="B28">
+        <v>112.94843638034504</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>103.08625709423224</v>
+      </c>
+      <c r="B29">
+        <v>98.978459779436818</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>122.35077752325348</v>
+      </c>
+      <c r="B30">
+        <v>111.66748303886598</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>110.3172197715642</v>
+      </c>
+      <c r="B31">
+        <v>102.06401107017346</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>110.0511048305962</v>
+      </c>
+      <c r="B32">
+        <v>107.63234937811519</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>139.59869546313402</v>
+      </c>
+      <c r="B33">
+        <v>99.615933666682821</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>112.88429793534149</v>
+      </c>
+      <c r="B34">
+        <v>102.60127334222784</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>133.013851034243</v>
+      </c>
+      <c r="B35">
+        <v>75.328619738491838</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>107.18917247001926</v>
+      </c>
+      <c r="B36">
+        <v>97.236724801062891</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>112.62526961281534</v>
+      </c>
+      <c r="B37">
+        <v>102.79915120406487</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>106.04261836579055</v>
+      </c>
+      <c r="B38">
+        <v>93.060538384006051</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>116.80409288532856</v>
+      </c>
+      <c r="B39">
+        <v>105.08351291732554</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>115.40359461434994</v>
+      </c>
+      <c r="B40">
+        <v>103.06100339989452</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>116.82031867937349</v>
+      </c>
+      <c r="B41">
+        <v>114.69611558402778</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>117.70180582565712</v>
+      </c>
+      <c r="B42">
+        <v>81.321331833249587</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>119.49845369023085</v>
+      </c>
+      <c r="B43">
+        <v>97.477835939869522</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>105.59110078479327</v>
+      </c>
+      <c r="B44">
+        <v>97.880880181198719</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>103.65708309380688</v>
+      </c>
+      <c r="B45">
+        <v>88.253612352212144</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>129.20441665726466</v>
+      </c>
+      <c r="B46">
+        <v>82.696693304710536</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:B30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="2" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>117.93812313202089</v>
+      </c>
+      <c r="B2">
+        <v>109.85697240090836</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>198.05285618495986</v>
+      </c>
+      <c r="B3">
+        <v>113.06976019848263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>121.05664891013508</v>
+      </c>
+      <c r="B4">
+        <v>104.0204831980658</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>122.71546579651981</v>
+      </c>
+      <c r="B5">
+        <v>101.7153684572875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>119.45552753892973</v>
+      </c>
+      <c r="B6">
+        <v>102.89792617631892</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>113.84864335965821</v>
+      </c>
+      <c r="B7">
+        <v>112.18818768062445</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>181.74757176953599</v>
+      </c>
+      <c r="B8">
+        <v>113.6412229415965</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>119.9341446381969</v>
+      </c>
+      <c r="B9">
+        <v>117.22122018000404</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>114.54455146165115</v>
+      </c>
+      <c r="B10">
+        <v>108.87319560773959</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>212.20862862368227</v>
+      </c>
+      <c r="B11">
+        <v>111.74604039698477</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>117.31545737372056</v>
+      </c>
+      <c r="B12">
+        <v>97.366304654335167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>133.16409239579843</v>
+      </c>
+      <c r="B13">
+        <v>114.04264200194159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>116.84487252145354</v>
+      </c>
+      <c r="B14">
+        <v>102.60386063358904</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>115.15568257829935</v>
+      </c>
+      <c r="B15">
+        <v>96.848871407042139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>112.27058888753781</v>
+      </c>
+      <c r="B16">
+        <v>107.08156655322527</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>117.30228159625044</v>
+      </c>
+      <c r="B17">
+        <v>98.581921102943525</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>108.35673043694177</v>
+      </c>
+      <c r="B18">
+        <v>100.82857316670432</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>154.11013383274238</v>
+      </c>
+      <c r="B19">
+        <v>104.86161895843814</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>230.17239359561705</v>
+      </c>
+      <c r="B20">
+        <v>103.87787146772867</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>127.14172725157739</v>
+      </c>
+      <c r="B21">
+        <v>106.08780103013972</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>126.53351160526927</v>
+      </c>
+      <c r="B22">
+        <v>108.26442026966342</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>240.42704157469609</v>
+      </c>
+      <c r="B23">
+        <v>115.50977633304777</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>113.03652445132356</v>
+      </c>
+      <c r="B24">
+        <v>103.38520612132783</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>240.04860006927512</v>
+      </c>
+      <c r="B25">
+        <v>110.00338879649792</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>109.97709927464761</v>
+      </c>
+      <c r="B26">
+        <v>104.35388572494162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>109.55024132806433</v>
+      </c>
+      <c r="B27">
+        <v>101.0079294906629</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>108.47050226742611</v>
+      </c>
+      <c r="B28">
+        <v>106.12193653610274</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>104.8928469108014</v>
+      </c>
+      <c r="B29">
+        <v>101.50788542930485</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>190.4711208715843</v>
+      </c>
+      <c r="B30">
+        <v>109.12709608037746</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:B34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="2" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>127.02377001274417</v>
+      </c>
+      <c r="B2">
+        <v>97.000255986167673</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>223.51454303934631</v>
+      </c>
+      <c r="B3">
+        <v>106.36442164723954</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>114.49995888801965</v>
+      </c>
+      <c r="B4">
+        <v>101.03780222087494</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>109.20091613239283</v>
+      </c>
+      <c r="B5">
+        <v>99.595585176652207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>108.49653404057814</v>
+      </c>
+      <c r="B6">
+        <v>90.619638827950368</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>101.62529552009326</v>
+      </c>
+      <c r="B7">
+        <v>97.318309892948022</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>125.3544824398336</v>
+      </c>
+      <c r="B8">
+        <v>107.71321343830411</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>151.80265591063861</v>
+      </c>
+      <c r="B9">
+        <v>118.30251054455967</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>113.89191153877572</v>
+      </c>
+      <c r="B10">
+        <v>101.59717756157882</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>116.14695048488059</v>
+      </c>
+      <c r="B11">
+        <v>103.88308837360293</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>113.82140854295351</v>
+      </c>
+      <c r="B12">
+        <v>103.08690806706699</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>189.88506100805117</v>
+      </c>
+      <c r="B13">
+        <v>121.2628519372048</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>120.65160399233648</v>
+      </c>
+      <c r="B14">
+        <v>107.78913823788866</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>179.66217241822423</v>
+      </c>
+      <c r="B15">
+        <v>110.46601364075711</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>105.30946438900156</v>
+      </c>
+      <c r="B16">
+        <v>97.215573908485212</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>117.09675136786622</v>
+      </c>
+      <c r="B17">
+        <v>102.15229012889036</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>117.02218661469148</v>
+      </c>
+      <c r="B18">
+        <v>99.132034459418321</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>100.13130119629231</v>
+      </c>
+      <c r="B19">
+        <v>97.489775845726129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>176.91685463708899</v>
+      </c>
+      <c r="B20">
+        <v>106.79485417638982</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>163.84929043041936</v>
+      </c>
+      <c r="B21">
+        <v>118.35941211495638</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>109.028034856278</v>
+      </c>
+      <c r="B22">
+        <v>103.35074396462029</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>111.27738807605101</v>
+      </c>
+      <c r="B23">
+        <v>103.37752032108911</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>225.35369825168891</v>
+      </c>
+      <c r="B24">
+        <v>100.2904014454618</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>120.61437505204147</v>
+      </c>
+      <c r="B25">
+        <v>93.022054766189157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>112.45779417786491</v>
+      </c>
+      <c r="B26">
+        <v>97.533087331078349</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>106.05376031957941</v>
+      </c>
+      <c r="B27">
+        <v>93.475685352958891</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>110.95728679453077</v>
+      </c>
+      <c r="B28">
+        <v>96.423165313841238</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>211.04674662053947</v>
+      </c>
+      <c r="B29">
+        <v>114.73068960663002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>110.83443318354277</v>
+      </c>
+      <c r="B30">
+        <v>104.65133501098839</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>151.69699850918175</v>
+      </c>
+      <c r="B31">
+        <v>109.09180067180999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>104.91958395923457</v>
+      </c>
+      <c r="B32">
+        <v>99.330698095223099</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>105.3474363005203</v>
+      </c>
+      <c r="B33">
+        <v>92.654098700065276</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>107.44932718757127</v>
+      </c>
+      <c r="B34">
+        <v>93.048683660750996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="2" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>355.66312102971494</v>
+      </c>
+      <c r="B2">
+        <v>120.2042201518027</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>327.60206569671021</v>
+      </c>
+      <c r="B3">
+        <v>139.03253120766178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>246.854076958212</v>
+      </c>
+      <c r="B4">
+        <v>107.81195998880806</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>162.39879841449238</v>
+      </c>
+      <c r="B5">
+        <v>127.89867246308576</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>250.93619577582751</v>
+      </c>
+      <c r="B6">
+        <v>141.88989962321972</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>175.98671074304735</v>
+      </c>
+      <c r="B7">
+        <v>133.46619702723999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>206.98775780487307</v>
+      </c>
+      <c r="B8">
+        <v>115.76520964111026</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>234.93161944023879</v>
+      </c>
+      <c r="B9">
+        <v>111.71577828212163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>255.48301098502461</v>
+      </c>
+      <c r="B10">
+        <v>153.25051055525427</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>332.66733945294533</v>
+      </c>
+      <c r="B11">
+        <v>122.24000413851805</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>175.65287739840906</v>
+      </c>
+      <c r="B12">
+        <v>114.82509353072467</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>157.84939006237823</v>
+      </c>
+      <c r="B13">
+        <v>121.1679560734997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>213.69769382023568</v>
+      </c>
+      <c r="B14">
+        <v>150.88027168959294</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>165.16408144476614</v>
+      </c>
+      <c r="B15">
+        <v>105.69329592674259</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="2" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>240.44378071898259</v>
+      </c>
+      <c r="B2">
+        <v>125.42155172945105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>194.15737345991511</v>
+      </c>
+      <c r="B3">
+        <v>106.94691487660977</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>151.52519787262378</v>
+      </c>
+      <c r="B4">
+        <v>109.26287358409098</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>119.43104177709709</v>
+      </c>
+      <c r="B5">
+        <v>97.997930019506882</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>109.52076514391766</v>
+      </c>
+      <c r="B6">
+        <v>107.969601108094</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>114.26547687262357</v>
+      </c>
+      <c r="B7">
+        <v>110.00074055381</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>119.17404290928155</v>
+      </c>
+      <c r="B8">
+        <v>103.00552535722683</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>140.16019225753897</v>
+      </c>
+      <c r="B9">
+        <v>113.45941811826894</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>201.95860141046467</v>
+      </c>
+      <c r="B10">
+        <v>130.92900467040769</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>115.77462271002359</v>
+      </c>
+      <c r="B11">
+        <v>102.22096419224238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>123.43134107117056</v>
+      </c>
+      <c r="B12">
+        <v>117.00087512452349</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>183.7128528746872</v>
+      </c>
+      <c r="B13">
+        <v>95.337748737950179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>128.3859464690824</v>
+      </c>
+      <c r="B14">
+        <v>108.76750930073287</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>229.57402574235385</v>
+      </c>
+      <c r="B15">
+        <v>114.42844620893473</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>116.7746536497296</v>
+      </c>
+      <c r="B16">
+        <v>109.48460244954772</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>119.47518767996569</v>
+      </c>
+      <c r="B17">
+        <v>106.4097905036687</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>214.13888533693535</v>
+      </c>
+      <c r="B18">
+        <v>105.78093290345331</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>124.92096690121595</v>
+      </c>
+      <c r="B19">
+        <v>100.69062396519</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>130.56916230070362</v>
+      </c>
+      <c r="B20">
+        <v>90.809944581353093</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>121.62905168828424</v>
+      </c>
+      <c r="B21">
+        <v>100.10225097968606</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>116.58599874067059</v>
+      </c>
+      <c r="B22">
+        <v>106.29474943542687</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>121.02306181825659</v>
+      </c>
+      <c r="B23">
+        <v>101.9844109632983</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <dimension ref="A1:B34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="2" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>112.4662121280605</v>
+      </c>
+      <c r="B2">
+        <v>105.87895553470965</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>118.90618286516931</v>
+      </c>
+      <c r="B3">
+        <v>98.048005507323481</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>128.31060702696047</v>
+      </c>
+      <c r="B4">
+        <v>102.08730608422154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>139.49589189394749</v>
+      </c>
+      <c r="B5">
+        <v>89.183997938980298</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>116.53287181377922</v>
+      </c>
+      <c r="B6">
+        <v>111.58306345897392</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>116.29252183824234</v>
+      </c>
+      <c r="B7">
+        <v>90.174328624956587</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>110.98648893049419</v>
+      </c>
+      <c r="B8">
+        <v>103.12905430297923</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>123.89748902900054</v>
+      </c>
+      <c r="B9">
+        <v>95.366284861949339</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>106.43708458633905</v>
+      </c>
+      <c r="B10">
+        <v>104.32279977746319</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>113.22501178306115</v>
+      </c>
+      <c r="B11">
+        <v>94.733384034121627</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>119.96421064997166</v>
+      </c>
+      <c r="B12">
+        <v>104.94474253204706</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>112.84206187907581</v>
+      </c>
+      <c r="B13">
+        <v>98.359727852660072</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>129.84215227413142</v>
+      </c>
+      <c r="B14">
+        <v>103.78092040733139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>197.92604727594542</v>
+      </c>
+      <c r="B15">
+        <v>106.69688123993448</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>133.41434070189871</v>
+      </c>
+      <c r="B16">
+        <v>95.141584059550567</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>105.85498704863288</v>
+      </c>
+      <c r="B17">
+        <v>100.25458907421873</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>106.41060645531766</v>
+      </c>
+      <c r="B18">
+        <v>95.863347658990179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>150.2462423304589</v>
+      </c>
+      <c r="B19">
+        <v>63.809470358001398</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>116.63286662649567</v>
+      </c>
+      <c r="B20">
+        <v>98.030127328310542</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>111.23588089690043</v>
+      </c>
+      <c r="B21">
+        <v>100.96008439489545</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>109.82443032359367</v>
+      </c>
+      <c r="B22">
+        <v>90.680110259461316</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>152.68276105235486</v>
+      </c>
+      <c r="B23">
+        <v>65.141888537197758</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>112.26654573005747</v>
+      </c>
+      <c r="B24">
+        <v>87.570936812427703</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>103.70981951883431</v>
+      </c>
+      <c r="B25">
+        <v>93.060646084311713</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>109.26843990728584</v>
+      </c>
+      <c r="B26">
+        <v>87.724603048403765</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>117.83476275223731</v>
+      </c>
+      <c r="B27">
+        <v>84.075853900933637</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>117.56362976062692</v>
+      </c>
+      <c r="B28">
+        <v>92.250549065122058</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>125.88738645080076</v>
+      </c>
+      <c r="B29">
+        <v>96.905639153096715</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>136.40628507403136</v>
+      </c>
+      <c r="B30">
+        <v>91.039909819749909</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>119.4358425352313</v>
+      </c>
+      <c r="B31">
+        <v>97.620855668707563</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>115.05132247357452</v>
+      </c>
+      <c r="B32">
+        <v>96.00181003575112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>102.28874205686922</v>
+      </c>
+      <c r="B33">
+        <v>100.12220378097379</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>127.7384818972683</v>
+      </c>
+      <c r="B34">
+        <v>101.56804763136245</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="2" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>135.36343157635812</v>
+      </c>
+      <c r="B2">
+        <v>108.62711356769265</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>108.04956419940783</v>
+      </c>
+      <c r="B3">
+        <v>100.49778239972622</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>108.87028258211527</v>
+      </c>
+      <c r="B4">
+        <v>101.13461563073895</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>136.44464375980931</v>
+      </c>
+      <c r="B5">
+        <v>122.48428814652186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>108.53365959368864</v>
+      </c>
+      <c r="B6">
+        <v>95.603561361508497</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>143.88205071073776</v>
+      </c>
+      <c r="B7">
+        <v>125.67580585810924</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>113.72212091125458</v>
+      </c>
+      <c r="B8">
+        <v>97.992308532736871</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>107.68333346210295</v>
+      </c>
+      <c r="B9">
+        <v>102.56587805518826</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>122.82080276276048</v>
+      </c>
+      <c r="B10">
+        <v>106.18351928051077</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>105.73186000554199</v>
+      </c>
+      <c r="B11">
+        <v>100.94245343496357</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>105.69854530307693</v>
+      </c>
+      <c r="B12">
+        <v>101.2095810627559</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>127.46803978335431</v>
+      </c>
+      <c r="B13">
+        <v>85.510651849450326</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>121.0747505605122</v>
+      </c>
+      <c r="B14">
+        <v>104.13833357576456</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>118.72796694569998</v>
+      </c>
+      <c r="B15">
+        <v>109.87873613110061</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>231.77891389721978</v>
+      </c>
+      <c r="B16">
+        <v>112.75852902633277</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>122.91153634205712</v>
+      </c>
+      <c r="B17">
+        <v>112.42708426765158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>212.37696638419104</v>
+      </c>
+      <c r="B18">
+        <v>113.53777115608389</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>113.58740648545562</v>
+      </c>
+      <c r="B19">
+        <v>99.932814424896563</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>112.98624019815796</v>
+      </c>
+      <c r="B20">
+        <v>108.74740162810272</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>112.01683252670124</v>
+      </c>
+      <c r="B21">
+        <v>101.31574878336944</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>119.91559054284235</v>
+      </c>
+      <c r="B22">
+        <v>115.91645508481466</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>111.99170093167029</v>
+      </c>
+      <c r="B23">
+        <v>96.543677029969572</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="2" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>125.39998708687709</v>
+      </c>
+      <c r="B2">
+        <v>110.74287634286861</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>219.63380598919034</v>
+      </c>
+      <c r="B3">
+        <v>156.50288874814845</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>234.87676596893803</v>
+      </c>
+      <c r="B4">
+        <v>103.11571990401929</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>124.66074068394578</v>
+      </c>
+      <c r="B5">
+        <v>105.61657915366126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>151.41153364155483</v>
+      </c>
+      <c r="B6">
+        <v>105.59844036384942</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>175.02217748917226</v>
+      </c>
+      <c r="B7">
+        <v>110.07028154308591</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>276.63669342341694</v>
+      </c>
+      <c r="B8">
+        <v>87.357307522460118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>115.38269659747479</v>
+      </c>
+      <c r="B9">
+        <v>113.61930434016158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>218.45445401514755</v>
+      </c>
+      <c r="B10">
+        <v>102.03055303222909</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>129.22473413827342</v>
+      </c>
+      <c r="B11">
+        <v>105.3484985231471</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>129.29244489976639</v>
+      </c>
+      <c r="B12">
+        <v>111.30153693295226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>122.05728742641664</v>
+      </c>
+      <c r="B13">
+        <v>112.53900161207002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>178.53494213616048</v>
+      </c>
+      <c r="B14">
+        <v>129.22524713423601</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>118.82573708304922</v>
+      </c>
+      <c r="B15">
+        <v>112.63530965239528</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>201.485707030051</v>
+      </c>
+      <c r="B16">
+        <v>105.62838347603345</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>258.80970455007281</v>
+      </c>
+      <c r="B17">
+        <v>123.48959441216468</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="2" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>110.83307898576822</v>
+      </c>
+      <c r="B2">
+        <v>106.29553630168479</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>117.53607542188678</v>
+      </c>
+      <c r="B3">
+        <v>105.34681223758908</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>106.95291075952719</v>
+      </c>
+      <c r="B4">
+        <v>101.11939858084233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>108.82710803621974</v>
+      </c>
+      <c r="B5">
+        <v>102.01257580121789</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>113.51518216615931</v>
+      </c>
+      <c r="B6">
+        <v>107.21892399562336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>116.11058762217566</v>
+      </c>
+      <c r="B7">
+        <v>109.29472905790648</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>100.11011522492942</v>
+      </c>
+      <c r="B8">
+        <v>87.480448319486811</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>105.60221951546461</v>
+      </c>
+      <c r="B9">
+        <v>104.23588098555916</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>128.26585813780468</v>
+      </c>
+      <c r="B10">
+        <v>101.20235654765904</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>114.03386503291891</v>
+      </c>
+      <c r="B11">
+        <v>102.54940288506565</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>108.55105700722443</v>
+      </c>
+      <c r="B12">
+        <v>105.12071594251945</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>124.51019228141917</v>
+      </c>
+      <c r="B13">
+        <v>121.11130666340193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>110.34386557868136</v>
+      </c>
+      <c r="B14">
+        <v>103.93316111897309</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>123.47547895806819</v>
+      </c>
+      <c r="B15">
+        <v>117.59654351687379</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>119.7728888219644</v>
+      </c>
+      <c r="B16">
+        <v>111.5005438677583</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>121.68520740038883</v>
+      </c>
+      <c r="B17">
+        <v>105.85353813509569</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>118.2873527754269</v>
+      </c>
+      <c r="B18">
+        <v>105.1628462054267</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>113.40395463386821</v>
+      </c>
+      <c r="B19">
+        <v>94.985851294791502</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>121.14095124856492</v>
+      </c>
+      <c r="B20">
+        <v>114.56206196198511</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>129.88804736483181</v>
+      </c>
+      <c r="B21">
+        <v>115.83295526303256</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>103.5944187154916</v>
+      </c>
+      <c r="B22">
+        <v>102.83561446696227</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>104.50049232221423</v>
+      </c>
+      <c r="B23">
+        <v>99.373048116669537</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>109.88263347840564</v>
+      </c>
+      <c r="B24">
+        <v>103.97671034636609</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>120.67928785719269</v>
+      </c>
+      <c r="B25">
+        <v>114.45337862429646</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>104.83970844727862</v>
+      </c>
+      <c r="B26">
+        <v>99.563199985488538</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>115.00518245415255</v>
+      </c>
+      <c r="B27">
+        <v>103.56378892937379</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>114.26649569529246</v>
+      </c>
+      <c r="B28">
+        <v>108.65170347781496</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>119.73457605791624</v>
+      </c>
+      <c r="B29">
+        <v>110.70454995743444</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>105.05268272253286</v>
+      </c>
+      <c r="B30">
+        <v>100.67826816956223</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>119.93536918226337</v>
+      </c>
+      <c r="B31">
+        <v>90.952981221021616</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+  <dimension ref="A1:B31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="2" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>107.65254856475862</v>
+      </c>
+      <c r="B2">
+        <v>100.90934629313918</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>115.04647071678264</v>
+      </c>
+      <c r="B3">
+        <v>97.15554499511957</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>109.4533012341474</v>
+      </c>
+      <c r="B4">
+        <v>107.83169802118852</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>146.29758898231998</v>
+      </c>
+      <c r="B5">
+        <v>123.18217277109963</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>110.76712821608747</v>
+      </c>
+      <c r="B6">
+        <v>107.52156718691084</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>107.31186439977978</v>
+      </c>
+      <c r="B7">
+        <v>99.956169949344599</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>114.3703366434945</v>
+      </c>
+      <c r="B8">
+        <v>91.272931764105024</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>115.87294700724898</v>
+      </c>
+      <c r="B9">
+        <v>105.9613882512145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>108.84643019019633</v>
+      </c>
+      <c r="B10">
+        <v>101.97294819559879</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>116.5157847459443</v>
+      </c>
+      <c r="B11">
+        <v>112.14242113354059</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>114.99248290822027</v>
+      </c>
+      <c r="B12">
+        <v>89.33692568066445</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>111.85677551935262</v>
+      </c>
+      <c r="B13">
+        <v>100.74527345213767</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>110.22383410555132</v>
+      </c>
+      <c r="B14">
+        <v>99.56946155246105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>133.73323450933046</v>
+      </c>
+      <c r="B15">
+        <v>97.959996253421735</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>113.10827738662478</v>
+      </c>
+      <c r="B16">
+        <v>101.82844067492452</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>112.53810826214253</v>
+      </c>
+      <c r="B17">
+        <v>106.24093682529559</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>114.97717635248054</v>
+      </c>
+      <c r="B18">
+        <v>109.22971400984787</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>134.33366542116369</v>
+      </c>
+      <c r="B19">
+        <v>125.91531036715517</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>116.53974050273069</v>
+      </c>
+      <c r="B20">
+        <v>102.525926601221</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>127.76244654363353</v>
+      </c>
+      <c r="B21">
+        <v>98.980234877131835</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>120.2635866987408</v>
+      </c>
+      <c r="B22">
+        <v>109.24690133213436</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>117.93604033309846</v>
+      </c>
+      <c r="B23">
+        <v>105.5089259247118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>103.96828667176705</v>
+      </c>
+      <c r="B24">
+        <v>99.877513131249586</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>111.62408364797844</v>
+      </c>
+      <c r="B25">
+        <v>100.608879119882</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>108.81052466374908</v>
+      </c>
+      <c r="B26">
+        <v>100.60557681603427</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>120.69433472148199</v>
+      </c>
+      <c r="B27">
+        <v>111.59395645609662</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>179.26945137908899</v>
+      </c>
+      <c r="B28">
+        <v>122.72581157389303</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>105.96454134232125</v>
+      </c>
+      <c r="B29">
+        <v>102.19739222244488</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>112.53910385987906</v>
+      </c>
+      <c r="B30">
+        <v>107.30181954643973</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>113.90069695525196</v>
+      </c>
+      <c r="B31">
+        <v>110.35737095602838</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="2" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>104.94195398337638</v>
+      </c>
+      <c r="B2">
+        <v>104.70476553846486</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>113.88958171002297</v>
+      </c>
+      <c r="B3">
+        <v>107.08891900233543</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>118.27674559533565</v>
+      </c>
+      <c r="B4">
+        <v>98.450818974287074</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>111.67697739431354</v>
+      </c>
+      <c r="B5">
+        <v>100.60162216271743</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>116.55627402092361</v>
+      </c>
+      <c r="B6">
+        <v>103.41329659859065</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>124.91898172722921</v>
+      </c>
+      <c r="B7">
+        <v>100.59204122734396</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>131.7446853772027</v>
+      </c>
+      <c r="B8">
+        <v>102.46588760199312</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>108.4546070895654</v>
+      </c>
+      <c r="B9">
+        <v>104.31615753234631</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>116.67291786329676</v>
+      </c>
+      <c r="B10">
+        <v>103.78726427625224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>199.06631696135997</v>
+      </c>
+      <c r="B11">
+        <v>114.00269201412272</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>122.3901003353315</v>
+      </c>
+      <c r="B12">
+        <v>109.85268370441734</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>107.84582853084989</v>
+      </c>
+      <c r="B13">
+        <v>94.233055125504862</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>123.48685468697578</v>
+      </c>
+      <c r="B14">
+        <v>97.21371150611553</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>111.58986518082258</v>
+      </c>
+      <c r="B15">
+        <v>100.60287753198008</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>211.5288428499961</v>
+      </c>
+      <c r="B16">
+        <v>112.41267954519081</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>111.45232381200054</v>
+      </c>
+      <c r="B17">
+        <v>105.99410934503263</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>160.32730978751061</v>
+      </c>
+      <c r="B18">
+        <v>125.57132608331857</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>109.5321355032589</v>
+      </c>
+      <c r="B19">
+        <v>103.89235083233504</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>115.42716823668513</v>
+      </c>
+      <c r="B20">
+        <v>105.17773486021498</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>111.57149504726836</v>
+      </c>
+      <c r="B21">
+        <v>103.68478834002063</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>107.09515705447865</v>
+      </c>
+      <c r="B22">
+        <v>105.28323174667112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>213.73803940190135</v>
+      </c>
+      <c r="B23">
+        <v>116.6427487977585</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>111.65971932564818</v>
+      </c>
+      <c r="B24">
+        <v>103.71720678097246</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>111.93647842068719</v>
+      </c>
+      <c r="B25">
+        <v>100.54610448928317</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:B45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="2" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>148.90102762554162</v>
+      </c>
+      <c r="B2">
+        <v>75.80828281583662</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>132.50813728602387</v>
+      </c>
+      <c r="B3">
+        <v>89.095737488214795</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>117.72946319496096</v>
+      </c>
+      <c r="B4">
+        <v>113.86081418418938</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>122.13917483840021</v>
+      </c>
+      <c r="B5">
+        <v>102.74920489841683</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>112.31832203120329</v>
+      </c>
+      <c r="B6">
+        <v>105.38039861076344</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>108.75417339969019</v>
+      </c>
+      <c r="B7">
+        <v>104.40502296598831</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>122.24096079899198</v>
+      </c>
+      <c r="B8">
+        <v>104.49580461455092</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>112.01313112263892</v>
+      </c>
+      <c r="B9">
+        <v>107.1614809933173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>117.24811024472193</v>
+      </c>
+      <c r="B10">
+        <v>110.59947961669862</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>119.30455914171739</v>
+      </c>
+      <c r="B11">
+        <v>95.495394942800601</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>111.66192803106318</v>
+      </c>
+      <c r="B12">
+        <v>104.81538504395895</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>106.14616936441293</v>
+      </c>
+      <c r="B13">
+        <v>99.922540169985425</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>110.86364490015377</v>
+      </c>
+      <c r="B14">
+        <v>108.78848844809802</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>240.01682771578086</v>
+      </c>
+      <c r="B15">
+        <v>112.78191407117441</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>109.47255899914504</v>
+      </c>
+      <c r="B16">
+        <v>100.97913444404631</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>119.84708452993176</v>
+      </c>
+      <c r="B17">
+        <v>113.3930305039958</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>126.84282169259026</v>
+      </c>
+      <c r="B18">
+        <v>102.48293249954438</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>157.10279442468365</v>
+      </c>
+      <c r="B19">
+        <v>120.70320569833261</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>111.49248050356476</v>
+      </c>
+      <c r="B20">
+        <v>107.12430220077887</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>105.80349479828794</v>
+      </c>
+      <c r="B21">
+        <v>100.12415716973338</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>119.34243006581092</v>
+      </c>
+      <c r="B22">
+        <v>109.20509947575447</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>104.64327667881058</v>
+      </c>
+      <c r="B23">
+        <v>101.34076296065587</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>113.91599071372909</v>
+      </c>
+      <c r="B24">
+        <v>108.05181975089802</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>120.75582184894003</v>
+      </c>
+      <c r="B25">
+        <v>106.06947294572714</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>107.84345429523989</v>
+      </c>
+      <c r="B26">
+        <v>102.88662929648055</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>167.94375635081488</v>
+      </c>
+      <c r="B27">
+        <v>101.67736804100288</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>117.67094417256476</v>
+      </c>
+      <c r="B28">
+        <v>100.71530906543701</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>171.22164562833464</v>
+      </c>
+      <c r="B29">
+        <v>123.71729246235132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>111.80973426843221</v>
+      </c>
+      <c r="B30">
+        <v>96.238266309454787</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>147.41247831600779</v>
+      </c>
+      <c r="B31">
+        <v>115.77493910808266</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>121.04668661805914</v>
+      </c>
+      <c r="B32">
+        <v>105.37419248970352</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>113.66220267227452</v>
+      </c>
+      <c r="B33">
+        <v>93.70361679903101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>123.17524873252252</v>
+      </c>
+      <c r="B34">
+        <v>110.73877240188357</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>124.96435347438477</v>
+      </c>
+      <c r="B35">
+        <v>100.94966387415816</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>112.17053054841953</v>
+      </c>
+      <c r="B36">
+        <v>97.471321287421958</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>159.52166706144317</v>
+      </c>
+      <c r="B37">
+        <v>115.94068081055239</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>142.79801662368033</v>
+      </c>
+      <c r="B38">
+        <v>124.21349217107363</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>113.27969610773523</v>
+      </c>
+      <c r="B39">
+        <v>100.09077856010401</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>106.13993107703141</v>
+      </c>
+      <c r="B40">
+        <v>100.82295780600795</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>114.51179757659116</v>
+      </c>
+      <c r="B41">
+        <v>102.10991230950782</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>114.45345619965265</v>
+      </c>
+      <c r="B42">
+        <v>96.038477525288755</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>141.75957912886349</v>
+      </c>
+      <c r="B43">
+        <v>129.46586343470469</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>121.49836187445769</v>
+      </c>
+      <c r="B44">
+        <v>106.79831363946205</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>115.79261101360257</v>
+      </c>
+      <c r="B45">
+        <v>94.073912292488785</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="2" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>124.92910689841071</v>
+      </c>
+      <c r="B2">
+        <v>92.426055517837753</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>217.3956171450084</v>
+      </c>
+      <c r="B3">
+        <v>115.72106385094479</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>118.58835836921418</v>
+      </c>
+      <c r="B4">
+        <v>101.34201114376008</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>245.45982400736798</v>
+      </c>
+      <c r="B5">
+        <v>105.39920549308562</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>114.8944175170693</v>
+      </c>
+      <c r="B6">
+        <v>110.51624323853358</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>131.03998249663346</v>
+      </c>
+      <c r="B7">
+        <v>102.52981879567405</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>115.93679247210416</v>
+      </c>
+      <c r="B8">
+        <v>103.26232693129316</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>196.74199448880574</v>
+      </c>
+      <c r="B9">
+        <v>115.48642242457258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>115.39465175984168</v>
+      </c>
+      <c r="B10">
+        <v>105.6530496213156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>110.6608866630299</v>
+      </c>
+      <c r="B11">
+        <v>108.11855315893089</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>109.34179877520481</v>
+      </c>
+      <c r="B12">
+        <v>105.7032766588212</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>117.2820529370929</v>
+      </c>
+      <c r="B13">
+        <v>111.59328546085446</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>110.05982763325767</v>
+      </c>
+      <c r="B14">
+        <v>106.08310181508716</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>113.43005219691069</v>
+      </c>
+      <c r="B15">
+        <v>103.6077874939248</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>107.09491357327764</v>
+      </c>
+      <c r="B16">
+        <v>96.87608379966079</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>105.8781942978536</v>
+      </c>
+      <c r="B17">
+        <v>99.391966672282322</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>104.6258741110268</v>
+      </c>
+      <c r="B18">
+        <v>103.71962456344581</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>115.90156540147228</v>
+      </c>
+      <c r="B19">
+        <v>105.81272663056934</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>118.89933741186465</v>
+      </c>
+      <c r="B20">
+        <v>105.93799386531363</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>119.7916775517445</v>
+      </c>
+      <c r="B21">
+        <v>97.4387966831043</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>115.66571240943729</v>
+      </c>
+      <c r="B22">
+        <v>106.07409196093127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>108.59877445757739</v>
+      </c>
+      <c r="B23">
+        <v>103.29402677540531</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>122.47038592902862</v>
+      </c>
+      <c r="B24">
+        <v>113.59425811745338</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>110.40753480503268</v>
+      </c>
+      <c r="B25">
+        <v>103.92906818159632</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>122.45284499447723</v>
+      </c>
+      <c r="B26">
+        <v>102.27587448474479</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:B78"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="2" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>92.058691206017684</v>
+      </c>
+      <c r="B2">
+        <v>83.116388948463381</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>185.63140412054085</v>
+      </c>
+      <c r="B3">
+        <v>86.929622112858169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>93.621916928350004</v>
+      </c>
+      <c r="B4">
+        <v>83.61817107315747</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>106.77567120227681</v>
+      </c>
+      <c r="B5">
+        <v>75.966870398038154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>196.36496808815218</v>
+      </c>
+      <c r="B6">
+        <v>95.49910263966332</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>92.563126096722115</v>
+      </c>
+      <c r="B7">
+        <v>83.360125286677558</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>203.14161117253573</v>
+      </c>
+      <c r="B8">
+        <v>93.979151840467452</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>100.7560972906589</v>
+      </c>
+      <c r="B9">
+        <v>90.878224460041125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>101.4045922641404</v>
+      </c>
+      <c r="B10">
+        <v>95.522575577316843</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>93.547872853517916</v>
+      </c>
+      <c r="B11">
+        <v>81.30131373521931</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>94.092015893349313</v>
+      </c>
+      <c r="B12">
+        <v>90.253277000128122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>104.46581956092004</v>
+      </c>
+      <c r="B13">
+        <v>88.689118420371784</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>92.684941753413071</v>
+      </c>
+      <c r="B14">
+        <v>83.303313489304657</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>97.616428852028179</v>
+      </c>
+      <c r="B15">
+        <v>94.199377978827286</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>97.404678737655885</v>
+      </c>
+      <c r="B16">
+        <v>87.039539746028055</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>96.627392425232784</v>
+      </c>
+      <c r="B17">
+        <v>81.432767807403152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>93.303753929158901</v>
+      </c>
+      <c r="B18">
+        <v>82.361520515660175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>99.679513579731179</v>
+      </c>
+      <c r="B19">
+        <v>92.785543618303848</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>103.27258037857447</v>
+      </c>
+      <c r="B20">
+        <v>91.881750904468376</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>101.77036922234369</v>
+      </c>
+      <c r="B21">
+        <v>93.362142009869217</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>100.61365544476187</v>
+      </c>
+      <c r="B22">
+        <v>79.637127132416381</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>96.807041066694168</v>
+      </c>
+      <c r="B23">
+        <v>95.284300006871732</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>94.799640464667135</v>
+      </c>
+      <c r="B24">
+        <v>81.468274877170799</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>102.70014545170352</v>
+      </c>
+      <c r="B25">
+        <v>94.565916198277776</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>108.31177771812375</v>
+      </c>
+      <c r="B26">
+        <v>86.699415049558183</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>94.980406577463469</v>
+      </c>
+      <c r="B27">
+        <v>81.380510254884271</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>92.245207933796152</v>
+      </c>
+      <c r="B28">
+        <v>83.667399532864181</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>109.93669774839951</v>
+      </c>
+      <c r="B29">
+        <v>90.584094622550367</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>98.224439791923217</v>
+      </c>
+      <c r="B30">
+        <v>80.714222672850696</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>111.97743129442658</v>
+      </c>
+      <c r="B31">
+        <v>76.814943943443552</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>166.46811937026246</v>
+      </c>
+      <c r="B32">
+        <v>98.844396844712662</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>92.565475955184084</v>
+      </c>
+      <c r="B33">
+        <v>85.396172483239525</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>109.63031144309225</v>
+      </c>
+      <c r="B34">
+        <v>98.291556016495576</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>99.752808058262673</v>
+      </c>
+      <c r="B35">
+        <v>97.489276464133368</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>99.185147974093255</v>
+      </c>
+      <c r="B36">
+        <v>87.053059504339473</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>99.239215187279981</v>
+      </c>
+      <c r="B37">
+        <v>82.103611176948021</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>185.02565819156371</v>
+      </c>
+      <c r="B38">
+        <v>103.64622596713664</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>104.06936172967059</v>
+      </c>
+      <c r="B39">
+        <v>84.140809899574791</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>88.97663887057648</v>
+      </c>
+      <c r="B40">
+        <v>82.632863028142722</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>96.418929327295857</v>
+      </c>
+      <c r="B41">
+        <v>86.075555649661752</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>202.64563424792064</v>
+      </c>
+      <c r="B42">
+        <v>96.549835131258632</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>94.984467025564783</v>
+      </c>
+      <c r="B43">
+        <v>80.78772379927625</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>94.467198677086358</v>
+      </c>
+      <c r="B44">
+        <v>86.896209914136662</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>95.708749873795512</v>
+      </c>
+      <c r="B45">
+        <v>80.627219185946913</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>92.921437912465393</v>
+      </c>
+      <c r="B46">
+        <v>88.280421819949538</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>97.593492188816853</v>
+      </c>
+      <c r="B47">
+        <v>89.995908244539166</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>97.650741096764222</v>
+      </c>
+      <c r="B48">
+        <v>85.436872068572768</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>96.802932054053784</v>
+      </c>
+      <c r="B49">
+        <v>90.870101432085633</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <v>101.52061622323477</v>
+      </c>
+      <c r="B50">
+        <v>84.123257724224501</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>99.047734363281748</v>
+      </c>
+      <c r="B51">
+        <v>94.713195622524438</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>96.063024855119139</v>
+      </c>
+      <c r="B52">
+        <v>90.870320929858579</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <v>107.12244437841007</v>
+      </c>
+      <c r="B53">
+        <v>91.754264269998473</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <v>101.73876139914896</v>
+      </c>
+      <c r="B54">
+        <v>88.574657405806221</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <v>103.83270368216415</v>
+      </c>
+      <c r="B55">
+        <v>89.17248964029227</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A56">
+        <v>94.816478285656899</v>
+      </c>
+      <c r="B56">
+        <v>87.778848430952507</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A57">
+        <v>95.520190624501666</v>
+      </c>
+      <c r="B57">
+        <v>91.097441231582565</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A58">
+        <v>103.92529327811783</v>
+      </c>
+      <c r="B58">
+        <v>88.492041268325025</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A59">
+        <v>113.8775109724793</v>
+      </c>
+      <c r="B59">
+        <v>86.262460975761883</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A60">
+        <v>103.76105536349721</v>
+      </c>
+      <c r="B60">
+        <v>92.337143033746031</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A61">
+        <v>98.744671107129278</v>
+      </c>
+      <c r="B61">
+        <v>89.419929040442611</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A62">
+        <v>95.25818961131769</v>
+      </c>
+      <c r="B62">
+        <v>91.350689333845068</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A63">
+        <v>89.651537872020668</v>
+      </c>
+      <c r="B63">
+        <v>83.816405115401494</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A64">
+        <v>107.8052918655287</v>
+      </c>
+      <c r="B64">
+        <v>94.771121243006974</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A65">
+        <v>106.31657726004653</v>
+      </c>
+      <c r="B65">
+        <v>91.637848562651655</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A66">
+        <v>91.975196683302173</v>
+      </c>
+      <c r="B66">
+        <v>83.770513677518849</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A67">
+        <v>95.497666033717309</v>
+      </c>
+      <c r="B67">
+        <v>88.700161728207348</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A68">
+        <v>101.0416278439707</v>
+      </c>
+      <c r="B68">
+        <v>88.239259138829837</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A69">
+        <v>99.164609740683275</v>
+      </c>
+      <c r="B69">
+        <v>87.678906652446983</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A70">
+        <v>105.46265300861862</v>
+      </c>
+      <c r="B70">
+        <v>75.538377687945783</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A71">
+        <v>91.180533614683441</v>
+      </c>
+      <c r="B71">
+        <v>80.867593685200404</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A72">
+        <v>107.80195602980234</v>
+      </c>
+      <c r="B72">
+        <v>87.820521708966794</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A73">
+        <v>99.216429678494151</v>
+      </c>
+      <c r="B73">
+        <v>92.047806620412885</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A74">
+        <v>192.53439501641878</v>
+      </c>
+      <c r="B74">
+        <v>97.900434735271162</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A75">
+        <v>165.01804696071468</v>
+      </c>
+      <c r="B75">
+        <v>99.617784287518461</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A76">
+        <v>92.61480400857549</v>
+      </c>
+      <c r="B76">
+        <v>86.213282568099601</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A77">
+        <v>154.62899097266052</v>
+      </c>
+      <c r="B77">
+        <v>102.92435592907502</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A78">
+        <v>95.82527085050269</v>
+      </c>
+      <c r="B78">
+        <v>91.419529042788469</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:B28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="2" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>118.45673120724096</v>
+      </c>
+      <c r="B2">
+        <v>102.52630267521329</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>111.42622198943639</v>
+      </c>
+      <c r="B3">
+        <v>103.08517305847195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>122.75984265610242</v>
+      </c>
+      <c r="B4">
+        <v>102.79939864963049</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>111.99003454535583</v>
+      </c>
+      <c r="B5">
+        <v>107.35190733205296</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>110.68427883946852</v>
+      </c>
+      <c r="B6">
+        <v>102.5684227946788</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>110.27928969426628</v>
+      </c>
+      <c r="B7">
+        <v>102.46414833861401</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>116.92773734029794</v>
+      </c>
+      <c r="B8">
+        <v>112.73773705846881</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>115.38280761388408</v>
+      </c>
+      <c r="B9">
+        <v>103.85336195474002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>110.31987342160951</v>
+      </c>
+      <c r="B10">
+        <v>103.98849092509369</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>115.67573274329908</v>
+      </c>
+      <c r="B11">
+        <v>104.1966488146893</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>108.4996363461713</v>
+      </c>
+      <c r="B12">
+        <v>104.58834433158293</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>121.67080923898003</v>
+      </c>
+      <c r="B13">
+        <v>118.68500221748864</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>250.95995308397599</v>
+      </c>
+      <c r="B14">
+        <v>111.18201413877669</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>113.84131489245279</v>
+      </c>
+      <c r="B15">
+        <v>106.11066378570703</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>120.8865292272224</v>
+      </c>
+      <c r="B16">
+        <v>119.3775325106829</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>124.00763505568767</v>
+      </c>
+      <c r="B17">
+        <v>113.19562846262032</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>109.4709666293176</v>
+      </c>
+      <c r="B18">
+        <v>102.48492564350234</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>201.8083231558445</v>
+      </c>
+      <c r="B19">
+        <v>111.83634711336121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>114.21481466863089</v>
+      </c>
+      <c r="B20">
+        <v>103.15508846105824</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>113.80786682009054</v>
+      </c>
+      <c r="B21">
+        <v>108.39269617372975</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>120.05530867366674</v>
+      </c>
+      <c r="B22">
+        <v>116.94485665736089</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>118.26836218713258</v>
+      </c>
+      <c r="B23">
+        <v>102.13752840576008</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>238.21677510668789</v>
+      </c>
+      <c r="B24">
+        <v>97.501383277752211</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>202.31235545302135</v>
+      </c>
+      <c r="B25">
+        <v>111.61173555280723</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>135.15788525375194</v>
+      </c>
+      <c r="B26">
+        <v>128.73170550567605</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>113.07429598713254</v>
+      </c>
+      <c r="B27">
+        <v>104.19160847507946</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>114.32713136526405</v>
+      </c>
+      <c r="B28">
+        <v>108.83518319277248</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:B83"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="2" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>88.869031544036801</v>
+      </c>
+      <c r="B2">
+        <v>75.419329080083187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>100.46609806061052</v>
+      </c>
+      <c r="B3">
+        <v>88.109391507622036</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>105.26307111842891</v>
+      </c>
+      <c r="B4">
+        <v>104.55212156300956</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>108.71047894408755</v>
+      </c>
+      <c r="B5">
+        <v>93.889734198019511</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>89.768571591702155</v>
+      </c>
+      <c r="B6">
+        <v>79.850513228085688</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>117.11953877016342</v>
+      </c>
+      <c r="B7">
+        <v>81.766402871706134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>111.47349057170963</v>
+      </c>
+      <c r="B8">
+        <v>79.366634126377164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>149.41731559053733</v>
+      </c>
+      <c r="B9">
+        <v>59.367470573825528</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>96.994347322116738</v>
+      </c>
+      <c r="B10">
+        <v>77.042311585660457</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>97.31196765498467</v>
+      </c>
+      <c r="B11">
+        <v>78.546668693367025</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>101.72019803012722</v>
+      </c>
+      <c r="B12">
+        <v>87.367610005165389</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>98.938053891099258</v>
+      </c>
+      <c r="B13">
+        <v>73.256207828152199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>107.67031447895067</v>
+      </c>
+      <c r="B14">
+        <v>91.996302510909132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>108.71130073646572</v>
+      </c>
+      <c r="B15">
+        <v>72.807838165755982</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>94.871169882208022</v>
+      </c>
+      <c r="B16">
+        <v>90.697275316621472</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>94.741132937475157</v>
+      </c>
+      <c r="B17">
+        <v>86.626699585135725</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>107.00686508906175</v>
+      </c>
+      <c r="B18">
+        <v>81.88079391049709</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>149.42476923815616</v>
+      </c>
+      <c r="B19">
+        <v>115.82031213872608</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>106.46695966885885</v>
+      </c>
+      <c r="B20">
+        <v>70.407150127156299</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>106.21702591948868</v>
+      </c>
+      <c r="B21">
+        <v>98.206137211499225</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>115.04600440938692</v>
+      </c>
+      <c r="B22">
+        <v>80.924142372939613</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>112.24846736511311</v>
+      </c>
+      <c r="B23">
+        <v>79.006176654623516</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>110.02495796716812</v>
+      </c>
+      <c r="B24">
+        <v>87.735836259377336</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>118.37618617883309</v>
+      </c>
+      <c r="B25">
+        <v>80.624667687623884</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>110.78023949161407</v>
+      </c>
+      <c r="B26">
+        <v>81.158852084888395</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>98.284393278273512</v>
+      </c>
+      <c r="B27">
+        <v>92.613021319007288</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>120.37998827362647</v>
+      </c>
+      <c r="B28">
+        <v>85.934724156522563</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>116.27051937578655</v>
+      </c>
+      <c r="B29">
+        <v>86.178521124297262</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>102.58338864767012</v>
+      </c>
+      <c r="B30">
+        <v>94.972696281174692</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>100.49237980073102</v>
+      </c>
+      <c r="B31">
+        <v>94.353293029343945</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>108.67058795303747</v>
+      </c>
+      <c r="B32">
+        <v>102.22581769806388</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>98.575735418788298</v>
+      </c>
+      <c r="B33">
+        <v>88.22010991348381</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>91.518455275362086</v>
+      </c>
+      <c r="B34">
+        <v>90.395521550942547</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>98.497089394296381</v>
+      </c>
+      <c r="B35">
+        <v>89.606107525168511</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>105.45961498138175</v>
+      </c>
+      <c r="B36">
+        <v>85.561246168043567</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>118.03400749146739</v>
+      </c>
+      <c r="B37">
+        <v>75.341907467019368</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>87.586355554506483</v>
+      </c>
+      <c r="B38">
+        <v>78.446110727045337</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>116.80185522166164</v>
+      </c>
+      <c r="B39">
+        <v>83.776085582395226</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>100.69051730714909</v>
+      </c>
+      <c r="B40">
+        <v>83.922037197040055</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>93.502820560112795</v>
+      </c>
+      <c r="B41">
+        <v>87.906944658054286</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>101.70415866843571</v>
+      </c>
+      <c r="B42">
+        <v>85.377302243400365</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>106.62392482577165</v>
+      </c>
+      <c r="B43">
+        <v>86.25505617972361</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>107.05409310388677</v>
+      </c>
+      <c r="B44">
+        <v>73.610809729685243</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>104.9244104929425</v>
+      </c>
+      <c r="B45">
+        <v>81.562753722021426</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>115.08110636953981</v>
+      </c>
+      <c r="B46">
+        <v>91.680187253320568</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>86.01911311938396</v>
+      </c>
+      <c r="B47">
+        <v>76.209690671573668</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>111.85054656788573</v>
+      </c>
+      <c r="B48">
+        <v>83.115368421950834</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>97.628057707802441</v>
+      </c>
+      <c r="B49">
+        <v>82.550204533225241</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <v>97.46280631274648</v>
+      </c>
+      <c r="B50">
+        <v>80.879189046683678</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>101.57599262546759</v>
+      </c>
+      <c r="B51">
+        <v>92.647862693121994</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>99.609336282482204</v>
+      </c>
+      <c r="B52">
+        <v>86.25306033125338</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <v>106.59619073978429</v>
+      </c>
+      <c r="B53">
+        <v>80.98380690713455</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <v>98.387581381347402</v>
+      </c>
+      <c r="B54">
+        <v>74.129675675886276</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <v>96.503541706999997</v>
+      </c>
+      <c r="B55">
+        <v>76.036816682703773</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A56">
+        <v>88.888364391626681</v>
+      </c>
+      <c r="B56">
+        <v>81.617687336272397</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A57">
+        <v>123.02512598072406</v>
+      </c>
+      <c r="B57">
+        <v>80.674594191865538</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A58">
+        <v>87.511157525439614</v>
+      </c>
+      <c r="B58">
+        <v>82.256078112054212</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A59">
+        <v>91.886714285546532</v>
+      </c>
+      <c r="B59">
+        <v>87.215476650812633</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A60">
+        <v>95.539500935287819</v>
+      </c>
+      <c r="B60">
+        <v>86.001395649401019</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A61">
+        <v>109.28361232586019</v>
+      </c>
+      <c r="B61">
+        <v>74.900603226376461</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A62">
+        <v>96.226582239271195</v>
+      </c>
+      <c r="B62">
+        <v>69.847113356746078</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A63">
+        <v>108.08955409557616</v>
+      </c>
+      <c r="B63">
+        <v>98.204227618829563</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A64">
+        <v>101.23800381339859</v>
+      </c>
+      <c r="B64">
+        <v>86.646156300937562</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A65">
+        <v>108.29845516155491</v>
+      </c>
+      <c r="B65">
+        <v>81.133903820624724</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A66">
+        <v>90.545002479056052</v>
+      </c>
+      <c r="B66">
+        <v>85.477557503569116</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A67">
+        <v>105.23039209213741</v>
+      </c>
+      <c r="B67">
+        <v>71.535935365954828</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A68">
+        <v>107.7220919499899</v>
+      </c>
+      <c r="B68">
+        <v>91.577459490470488</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A69">
+        <v>90.647638667218672</v>
+      </c>
+      <c r="B69">
+        <v>84.540405899138307</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A70">
+        <v>106.0177401770064</v>
+      </c>
+      <c r="B70">
+        <v>95.791624391286405</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A71">
+        <v>106.30200430324419</v>
+      </c>
+      <c r="B71">
+        <v>88.12253656923275</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A72">
+        <v>103.66695617612709</v>
+      </c>
+      <c r="B72">
+        <v>96.113468054346299</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A73">
+        <v>98.484186338624156</v>
+      </c>
+      <c r="B73">
+        <v>85.155865511452461</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A74">
+        <v>102.14063760454695</v>
+      </c>
+      <c r="B74">
+        <v>89.22431758968979</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A75">
+        <v>112.41027392580986</v>
+      </c>
+      <c r="B75">
+        <v>79.458029525771963</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A76">
+        <v>116.23453098498938</v>
+      </c>
+      <c r="B76">
+        <v>74.458582922806684</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A77">
+        <v>112.28714747297967</v>
+      </c>
+      <c r="B77">
+        <v>91.094902880600117</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A78">
+        <v>91.042936590820773</v>
+      </c>
+      <c r="B78">
+        <v>71.613188859322619</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A79">
+        <v>109.0078435505022</v>
+      </c>
+      <c r="B79">
+        <v>85.242542243827799</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A80">
+        <v>102.69161056136983</v>
+      </c>
+      <c r="B80">
+        <v>88.92172843280764</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A81">
+        <v>93.505970114832152</v>
+      </c>
+      <c r="B81">
+        <v>87.342379951786995</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A82">
+        <v>98.636166623715795</v>
+      </c>
+      <c r="B82">
+        <v>78.582804813817205</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A83">
+        <v>96.016461513893276</v>
+      </c>
+      <c r="B83">
+        <v>73.94157465930985</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:B35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="2" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>222.32763431895282</v>
+      </c>
+      <c r="B2">
+        <v>108.79569471346068</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>191.40416538938206</v>
+      </c>
+      <c r="B3">
+        <v>112.60397691213899</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>103.96403216190068</v>
+      </c>
+      <c r="B4">
+        <v>102.27633396260974</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>194.53399173005462</v>
+      </c>
+      <c r="B5">
+        <v>119.27702741811044</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>118.54035931314054</v>
+      </c>
+      <c r="B6">
+        <v>98.639479747679957</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>114.26655995730482</v>
+      </c>
+      <c r="B7">
+        <v>110.51898512330902</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>121.51490784074652</v>
+      </c>
+      <c r="B8">
+        <v>97.828276318277659</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>109.45078672204393</v>
+      </c>
+      <c r="B9">
+        <v>104.427528985881</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>111.38629185817076</v>
+      </c>
+      <c r="B10">
+        <v>99.165377929976785</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>112.36976896955383</v>
+      </c>
+      <c r="B11">
+        <v>101.69600495373884</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>109.48471086429713</v>
+      </c>
+      <c r="B12">
+        <v>107.98467125107578</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>119.69962424746042</v>
+      </c>
+      <c r="B13">
+        <v>105.9430431772974</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>115.35225594638541</v>
+      </c>
+      <c r="B14">
+        <v>104.89174236050305</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>120.22866925036526</v>
+      </c>
+      <c r="B15">
+        <v>107.76132877220658</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>106.17338723444439</v>
+      </c>
+      <c r="B16">
+        <v>103.11232826080378</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>107.12597038883013</v>
+      </c>
+      <c r="B17">
+        <v>100.93063981773932</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>113.39633992959136</v>
+      </c>
+      <c r="B18">
+        <v>98.030323078457059</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>115.31945344694078</v>
+      </c>
+      <c r="B19">
+        <v>110.96375758962043</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>112.77168470713728</v>
+      </c>
+      <c r="B20">
+        <v>97.027020270849746</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>119.86803544439546</v>
+      </c>
+      <c r="B21">
+        <v>115.08582744541727</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>165.50904602457999</v>
+      </c>
+      <c r="B22">
+        <v>103.04868259838469</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>115.52527159265136</v>
+      </c>
+      <c r="B23">
+        <v>101.18874477289899</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>112.77447375043417</v>
+      </c>
+      <c r="B24">
+        <v>106.83051555132519</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>125.63749704262577</v>
+      </c>
+      <c r="B25">
+        <v>106.62060415796594</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>110.77258184993411</v>
+      </c>
+      <c r="B26">
+        <v>95.062597527161188</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>193.31382830386443</v>
+      </c>
+      <c r="B27">
+        <v>105.0285148952299</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>121.66335996847953</v>
+      </c>
+      <c r="B28">
+        <v>101.61109270989476</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>213.2627453789876</v>
+      </c>
+      <c r="B29">
+        <v>115.7066712143525</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>106.81172748095723</v>
+      </c>
+      <c r="B30">
+        <v>100.78303799606672</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>125.45391041247247</v>
+      </c>
+      <c r="B31">
+        <v>105.74022527865039</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>107.86075344574868</v>
+      </c>
+      <c r="B32">
+        <v>103.93632582149137</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>112.60181482157414</v>
+      </c>
+      <c r="B33">
+        <v>104.45394890390254</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>184.60967151507222</v>
+      </c>
+      <c r="B34">
+        <v>113.40194269719537</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>124.5139008507266</v>
+      </c>
+      <c r="B35">
+        <v>113.74839381245775</v>
       </c>
     </row>
   </sheetData>
